--- a/REGULAR/CASUAL-REGULAR FINAL/DE VILLA, MARITES DINGLASAN.xlsx
+++ b/REGULAR/CASUAL-REGULAR FINAL/DE VILLA, MARITES DINGLASAN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CASUAL-REGULAR FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66B64E0-C371-47DB-ADC6-CC5E3EC7A128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>PERIOD</t>
   </si>
@@ -183,11 +182,17 @@
   <si>
     <t>CSWDO</t>
   </si>
+  <si>
+    <t>SOLOP(2-0-0)</t>
+  </si>
+  <si>
+    <t>8/2,3/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1054,7 +1059,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1097,7 +1102,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1161,7 +1166,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1221,7 +1226,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1287,7 +1292,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1350,7 +1355,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1448,7 +1453,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1507,7 +1512,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1572,7 +1577,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1615,7 +1620,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1690,7 +1695,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1876,7 +1881,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1942,7 +1947,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2000,7 +2005,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2066,7 +2071,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2122,7 +2127,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2197,7 +2202,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2240,7 +2245,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2306,7 +2311,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2362,7 +2367,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2460,7 +2465,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2523,7 +2528,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2572,7 +2577,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2589,25 +2594,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2619,13 +2624,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2634,14 +2639,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2945,7 +2950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2955,7 +2960,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2963,34 +2968,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A12" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A10" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3011,7 +3016,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3033,7 +3038,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3055,7 +3060,7 @@
       <c r="J4" s="58"/>
       <c r="K4" s="59"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3063,7 +3068,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3076,7 +3081,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="52" t="s">
@@ -3093,7 +3098,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3128,7 +3133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3137,7 +3142,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>11.167</v>
+        <v>12.417</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3147,12 +3152,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>11.167</v>
+        <v>12.417</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="51" t="s">
         <v>44</v>
       </c>
@@ -3174,7 +3179,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="48"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>44837</v>
       </c>
@@ -3194,7 +3199,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>44895</v>
       </c>
@@ -3214,7 +3219,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>44926</v>
       </c>
@@ -3234,7 +3239,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="51" t="s">
         <v>43</v>
       </c>
@@ -3252,7 +3257,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>44957</v>
       </c>
@@ -3272,7 +3277,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>44985</v>
       </c>
@@ -3292,7 +3297,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>45016</v>
       </c>
@@ -3312,7 +3317,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>45046</v>
       </c>
@@ -3332,7 +3337,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>45077</v>
       </c>
@@ -3352,7 +3357,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>45107</v>
       </c>
@@ -3372,29 +3377,33 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>45138</v>
       </c>
       <c r="B21" s="20"/>
-      <c r="C21" s="13"/>
+      <c r="C21" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D21" s="39"/>
       <c r="E21" s="9"/>
       <c r="F21" s="20"/>
-      <c r="G21" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G21" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H21" s="39"/>
       <c r="I21" s="9"/>
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>45169</v>
       </c>
-      <c r="B22" s="20"/>
+      <c r="B22" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C22" s="13"/>
       <c r="D22" s="39"/>
       <c r="E22" s="9"/>
@@ -3406,9 +3415,11 @@
       <c r="H22" s="39"/>
       <c r="I22" s="9"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="20"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K22" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>45199</v>
       </c>
@@ -3426,7 +3437,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>45230</v>
       </c>
@@ -3444,7 +3455,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>45260</v>
       </c>
@@ -3462,7 +3473,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>45291</v>
       </c>
@@ -3480,7 +3491,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>45322</v>
       </c>
@@ -3498,7 +3509,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>45351</v>
       </c>
@@ -3516,7 +3527,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>45382</v>
       </c>
@@ -3534,7 +3545,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>45412</v>
       </c>
@@ -3552,7 +3563,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>45443</v>
       </c>
@@ -3570,7 +3581,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>45473</v>
       </c>
@@ -3588,7 +3599,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>45504</v>
       </c>
@@ -3606,7 +3617,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>45535</v>
       </c>
@@ -3624,7 +3635,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>45565</v>
       </c>
@@ -3642,7 +3653,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>45596</v>
       </c>
@@ -3660,7 +3671,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>45626</v>
       </c>
@@ -3678,7 +3689,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>45657</v>
       </c>
@@ -3696,7 +3707,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>45688</v>
       </c>
@@ -3714,7 +3725,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>45716</v>
       </c>
@@ -3732,7 +3743,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>45747</v>
       </c>
@@ -3750,7 +3761,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>45777</v>
       </c>
@@ -3768,7 +3779,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>45808</v>
       </c>
@@ -3786,7 +3797,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>45838</v>
       </c>
@@ -3804,7 +3815,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>45869</v>
       </c>
@@ -3822,7 +3833,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>45900</v>
       </c>
@@ -3840,7 +3851,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>45930</v>
       </c>
@@ -3858,7 +3869,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>45961</v>
       </c>
@@ -3876,7 +3887,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>45991</v>
       </c>
@@ -3894,7 +3905,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>46022</v>
       </c>
@@ -3912,7 +3923,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>46053</v>
       </c>
@@ -3930,7 +3941,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>46081</v>
       </c>
@@ -3948,7 +3959,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>46112</v>
       </c>
@@ -3966,7 +3977,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>46142</v>
       </c>
@@ -3984,7 +3995,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>46173</v>
       </c>
@@ -4002,7 +4013,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>46203</v>
       </c>
@@ -4020,7 +4031,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>46234</v>
       </c>
@@ -4038,7 +4049,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -4054,7 +4065,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -4070,7 +4081,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -4086,7 +4097,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -4102,7 +4113,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -4118,7 +4129,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -4134,7 +4145,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -4150,7 +4161,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -4166,7 +4177,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -4182,7 +4193,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -4198,7 +4209,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -4214,7 +4225,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -4230,7 +4241,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -4246,7 +4257,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -4262,7 +4273,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -4278,7 +4289,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -4294,7 +4305,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -4310,7 +4321,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -4326,7 +4337,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -4342,7 +4353,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -4358,7 +4369,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -4374,7 +4385,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4390,7 +4401,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4406,7 +4417,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4422,7 +4433,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4438,7 +4449,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4454,7 +4465,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4470,7 +4481,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4486,7 +4497,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4502,7 +4513,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4518,7 +4529,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4534,7 +4545,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4550,7 +4561,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4566,7 +4577,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4582,7 +4593,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4598,7 +4609,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4614,7 +4625,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4630,7 +4641,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4646,7 +4657,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4662,7 +4673,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4678,7 +4689,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4694,7 +4705,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4710,7 +4721,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4726,7 +4737,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4742,7 +4753,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4758,7 +4769,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -4774,7 +4785,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -4790,7 +4801,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -4806,7 +4817,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -4822,7 +4833,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -4838,7 +4849,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -4854,7 +4865,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -4870,7 +4881,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -4886,7 +4897,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -4902,7 +4913,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -4918,7 +4929,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -4934,7 +4945,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -4950,7 +4961,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -4966,7 +4977,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -4982,7 +4993,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -4998,7 +5009,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5014,7 +5025,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5030,7 +5041,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5046,7 +5057,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5062,7 +5073,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5078,7 +5089,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5094,7 +5105,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5110,7 +5121,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5126,7 +5137,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5142,7 +5153,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5158,7 +5169,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5174,7 +5185,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5190,7 +5201,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5206,7 +5217,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="41"/>
       <c r="B131" s="15"/>
       <c r="C131" s="42"/>
@@ -5222,7 +5233,7 @@
       <c r="J131" s="12"/>
       <c r="K131" s="15"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="41"/>
       <c r="B132" s="15"/>
       <c r="C132" s="42"/>
@@ -5253,10 +5264,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C2BA5A96-76E5-4F4C-A10B-C79231BAE09F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5279,7 +5290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -5287,21 +5298,21 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
@@ -5314,7 +5325,7 @@
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5343,7 +5354,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -5365,17 +5376,17 @@
         <v>1.167</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
@@ -5399,10 +5410,10 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="50">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>22.334</v>
+        <v>24.834</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -5430,7 +5441,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -5456,7 +5467,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -5482,7 +5493,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -5508,7 +5519,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -5534,7 +5545,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -5560,7 +5571,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -5586,7 +5597,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -5612,7 +5623,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -5632,7 +5643,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -5652,7 +5663,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -5672,7 +5683,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -5693,7 +5704,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -5714,7 +5725,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -5735,7 +5746,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -5756,7 +5767,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -5777,7 +5788,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -5798,7 +5809,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -5819,7 +5830,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -5840,7 +5851,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -5861,7 +5872,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -5882,7 +5893,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -5903,7 +5914,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -5924,7 +5935,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -5945,7 +5956,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -5966,7 +5977,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -5987,7 +5998,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -6008,7 +6019,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -6029,7 +6040,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -6050,7 +6061,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -6071,7 +6082,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -6092,7 +6103,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -6101,7 +6112,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -6110,7 +6121,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -6119,7 +6130,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -6128,7 +6139,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -6137,7 +6148,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -6146,7 +6157,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -6155,7 +6166,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -6164,7 +6175,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -6173,7 +6184,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -6182,7 +6193,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -6191,7 +6202,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -6200,7 +6211,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -6209,7 +6220,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -6218,7 +6229,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -6227,7 +6238,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -6236,7 +6247,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -6245,7 +6256,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -6254,7 +6265,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -6263,7 +6274,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -6272,7 +6283,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -6281,7 +6292,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -6290,7 +6301,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -6299,7 +6310,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -6308,7 +6319,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -6317,7 +6328,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -6326,7 +6337,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -6335,7 +6346,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -6344,7 +6355,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -6353,7 +6364,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/CASUAL-REGULAR FINAL/DE VILLA, MARITES DINGLASAN.xlsx
+++ b/REGULAR/CASUAL-REGULAR FINAL/DE VILLA, MARITES DINGLASAN.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>PERIOD</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>8/2,3/2023</t>
+  </si>
+  <si>
+    <t>9/13,14/2023</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1062,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1102,7 +1105,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1166,7 +1169,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1226,7 +1229,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1292,7 +1295,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1355,7 +1358,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1453,7 +1456,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1512,7 +1515,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1577,7 +1580,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1620,7 +1623,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1695,7 +1698,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1881,7 +1884,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1947,7 +1950,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2005,7 +2008,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2071,7 +2074,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2127,7 +2130,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2202,7 +2205,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2245,7 +2248,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2311,7 +2314,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2367,7 +2370,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2465,7 +2468,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2528,7 +2531,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2977,7 +2980,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A10" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
+      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3423,7 +3426,9 @@
       <c r="A23" s="40">
         <v>45199</v>
       </c>
-      <c r="B23" s="20"/>
+      <c r="B23" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C23" s="13"/>
       <c r="D23" s="39"/>
       <c r="E23" s="9"/>
@@ -3435,7 +3440,9 @@
       <c r="H23" s="39"/>
       <c r="I23" s="9"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="20"/>
+      <c r="K23" s="20" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">

--- a/REGULAR/CASUAL-REGULAR FINAL/DE VILLA, MARITES DINGLASAN.xlsx
+++ b/REGULAR/CASUAL-REGULAR FINAL/DE VILLA, MARITES DINGLASAN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CASUAL-REGULAR FINAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CASUAL-REGULAR FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BA76B9-0D9D-499E-9F6E-1A3EAE104286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55991FCC-7EA4-4CFE-8A58-B18220DBA5EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2990,7 +2990,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3696" topLeftCell="A22" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K27" sqref="K27"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3155,7 +3155,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>15.417000000000002</v>
+        <v>17.917000000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3165,7 +3165,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>17.417000000000002</v>
+        <v>19.917000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3511,13 +3511,15 @@
       <c r="B26" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="13"/>
+      <c r="C26" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D26" s="39"/>
       <c r="E26" s="9"/>
       <c r="F26" s="20"/>
-      <c r="G26" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G26" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H26" s="39"/>
       <c r="I26" s="9"/>
@@ -3549,13 +3551,15 @@
         <v>45322</v>
       </c>
       <c r="B28" s="20"/>
-      <c r="C28" s="13"/>
+      <c r="C28" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D28" s="39"/>
       <c r="E28" s="9"/>
       <c r="F28" s="20"/>
-      <c r="G28" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G28" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H28" s="39"/>
       <c r="I28" s="9"/>
@@ -5466,7 +5470,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="50">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>32.834000000000003</v>
+        <v>37.834000000000003</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
